--- a/biology/Botanique/Splachnidiaceae/Splachnidiaceae.xlsx
+++ b/biology/Botanique/Splachnidiaceae/Splachnidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Splachnidiaceae sont une famille d’algues brunes de l’ordre des Scytothamnales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Splachnidium dérivé du grec σπλάγχνο / splánchno, « viscères ; entrailles », et du suffixe "-idium" tiré du grec ειδοσ / eidos, « aspect extérieur ; forme ; apparence », probablement en référence à la fronde de l'algue dont  l'« aspect extérieur cylindrique, tubulaire, gonflé, coriace »[note 1], peut faire penser à des viscères[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Splachnidium dérivé du grec σπλάγχνο / splánchno, « viscères ; entrailles », et du suffixe "-idium" tiré du grec ειδοσ / eidos, « aspect extérieur ; forme ; apparence », probablement en référence à la fronde de l'algue dont  l'« aspect extérieur cylindrique, tubulaire, gonflé, coriace »[note 1], peut faire penser à des viscères. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, à la suite d’analyses génétiques, des phycologues français ont proposé La Réunion des trois genres Scytothamnus (en), Stereocladon (d) et Splachnidium (d) dans la seule famille des Splachnidiaceae[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, à la suite d’analyses génétiques, des phycologues français ont proposé La Réunion des trois genres Scytothamnus (en), Stereocladon (d) et Splachnidium (d) dans la seule famille des Splachnidiaceae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 décembre 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 décembre 2021) :
 Scytothamnus J.D.Hooker &amp; Harvey, 1845 : genre type des Scytothamnaceae, Womersley, 1987
 Splachnidium (d) Greville, 1830
 Le genre Stereocladon J.D.Hooker &amp; Harvey, 1845  n'est pas répertorié par WoRMS.
